--- a/src/json/w3x/SkillArchive/StatIcons.xlsx
+++ b/src/json/w3x/SkillArchive/StatIcons.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SandfoxArchive\src\json\w3x\SkillArchive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBE0F3B-6214-4A3A-AD93-C6AE84ADF0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FB6F85-7B74-4E01-910D-4C9E2C0263F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B3B27FE-800C-41C8-9BA9-5F682B78571D}"/>
   </bookViews>
   <sheets>
     <sheet name="스탯아이콘 정리" sheetId="1" r:id="rId1"/>
+    <sheet name="종족아이콘 정리" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>회피치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +178,166 @@
   </si>
   <si>
     <t>00ff00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유할 수 있는 체력의 상한치입니다 적의 공격 등을 받아 체력이 0이 되면 사망 상태가 되어 캐릭터가 움직일 수 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 체력 재생량입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 마나 재생량입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대부분의 스킬 사용 시에 필요한 자원인 마나의 보유 상한치입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 획득량이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부 공격의 피해량이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 받을 수 있는 최소피해량이 감소합니다. (대상의 정확도에 따라 변동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 가할 수 있는 최소피해량이 증가합니다. (대상의 회피치에 따라 변동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 상점에서 '행운 보너스' 물품이 등장할 확률이 증가합니다. 스킬 등에서 확률적으로 발동하는 대부분의 추가효과의 발동확률에 관여합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 물리피해량을 감소시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 마법피해량을 감소시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리피해를 입힐 때 해당 수치만큼 대상의 방어력을 무시합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법피해를 입힐 때 해당 수치만큼 대상의 저항력을 무시합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설 및 작업의 속도가 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 대상과 주고받는 회복/보호막량이 증가하고 다른 대상에게 주는 피해가 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffff99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00ffff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 초당 이동거리입니다. (실적용 최대값: 522)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본공격의 재사용 대기시간을 감소시킵니다. (일부 무기는 영향받지 않음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 재사용대기시간을 더 빠르게 감소시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 획득량을 증가시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 수치보다 가까이 있는 대상에게만 기본공격이 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언데드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,8 +522,35 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF99"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FFFF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF775544"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,8 +671,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF775544"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -492,87 +710,215 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -581,6 +927,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF464546"/>
+      <color rgb="FFFFCC00"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FF775544"/>
+      <color rgb="FF00FFFF"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FF999999"/>
       <color rgb="FFDD9966"/>
@@ -735,16 +1086,945 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0805DE35-9F8F-4D32-B457-951EAC8E7B49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="628650"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7DB56D1-275B-4634-A5FE-B3F3EDF6C339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="838200"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0805DE35-9F8F-4D32-B457-951EAC8E7B49}"/>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07492CB6-E3F6-409A-999D-E8AF62A267B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="0"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B7A138-1536-491A-85DC-A7CC5C669605}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="209550"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1AEA2D-6EBE-4123-A0B6-0B1E7E26349E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="419100"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567B2C22-E7EF-487A-A3C0-62D17FCA89FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="628650"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE011A53-6898-4633-9244-E6A40F011FAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="838200"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A69043-74AC-467F-8C14-D8BCEBBF52B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1047750"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1553C7B-BAEA-44DA-8C23-10DFD86811D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="1047750"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57AC2F9E-7C98-42D6-AF90-3341E9B6C02A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="628650"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0007BD63-22BB-46E0-8B1C-A2A7CCB3E5BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="838200"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D892900-FC32-46B2-94F3-E4D3FC17E872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="1047750"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC67E6BF-6C3F-4A6B-9909-D2B6E33A529D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="0"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A11CADEB-711B-4DDD-B26B-44B91C531A3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="209550"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E6B7D7-93F2-4E71-A967-9579D46AF9F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="419100"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A7F1F2-0B40-49DD-827F-AA23ED0530D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9144000"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3214776E-FE1F-4742-AD34-8C261BFA19BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="9144000"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5334F2AC-982F-4347-B98A-ED260696EBE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="9144000"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCC2CC4-2FC4-446D-88FD-251ED726B7A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8A4AEF-646F-4595-90C7-2CE5DD23E9EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="0"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{352FAEA4-6ACC-4AB5-9D19-07CEAA896880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="0"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DA87E9-9B4E-4461-9368-871B25A80F71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -765,7 +2045,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="628650"/>
+          <a:off x="0" y="3048000"/>
           <a:ext cx="609600" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -785,10 +2065,10 @@
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7DB56D1-275B-4634-A5FE-B3F3EDF6C339}"/>
+        <xdr:cNvPr id="27" name="그림 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8647CC-13FA-401D-ADAE-9DD43C836FAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -809,7 +2089,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="838200"/>
+          <a:off x="5486400" y="3048000"/>
           <a:ext cx="609600" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -829,10 +2109,10 @@
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07492CB6-E3F6-409A-999D-E8AF62A267B0}"/>
+        <xdr:cNvPr id="28" name="그림 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C167B49-397C-4EEF-8CF7-B8B1F8F6A1DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -853,7 +2133,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="0"/>
+          <a:off x="0" y="914400"/>
           <a:ext cx="609600" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -873,10 +2153,10 @@
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B7A138-1536-491A-85DC-A7CC5C669605}"/>
+        <xdr:cNvPr id="29" name="그림 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90BAD97A-DEE6-496C-823A-D7E869D92DC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -897,7 +2177,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="209550"/>
+          <a:off x="2743200" y="1524000"/>
           <a:ext cx="609600" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -917,10 +2197,10 @@
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1AEA2D-6EBE-4123-A0B6-0B1E7E26349E}"/>
+        <xdr:cNvPr id="30" name="그림 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C99B6F7-BB32-498A-891D-44D3644F75CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,7 +2221,51 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="419100"/>
+          <a:off x="5486400" y="1524000"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{911060B1-0F14-4A68-8792-F74A5089126B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="3048000"/>
           <a:ext cx="609600" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -961,31 +2285,31 @@
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567B2C22-E7EF-487A-A3C0-62D17FCA89FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2743200" y="628650"/>
+        <xdr:cNvPr id="35" name="그림 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA7540C-5C5F-474E-AF58-399F78C71302}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2743200"/>
           <a:ext cx="609600" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1005,31 +2329,31 @@
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE011A53-6898-4633-9244-E6A40F011FAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2743200" y="838200"/>
+        <xdr:cNvPr id="36" name="그림 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9618ED-6221-4A00-B522-8A55512CE49A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="2743200"/>
           <a:ext cx="609600" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1043,37 +2367,81 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="609600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A69043-74AC-467F-8C14-D8BCEBBF52B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1047750"/>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33036F9E-417C-4616-9B8F-3A6BB13332AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="2743200"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="609600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="그림 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42487B77-5209-41EA-8E85-D097CF750935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7620000"/>
           <a:ext cx="609600" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1087,81 +2455,37 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="609600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1553C7B-BAEA-44DA-8C23-10DFD86811D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2743200" y="1047750"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="그림 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57AC2F9E-7C98-42D6-AF90-3341E9B6C02A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="628650"/>
+        <xdr:cNvPr id="39" name="그림 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{115FBAE6-CD07-4AFA-80BE-F1E26B170DB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="7620000"/>
           <a:ext cx="609600" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1181,54 +2505,10 @@
     <xdr:ext cx="609600" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="그림 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0007BD63-22BB-46E0-8B1C-A2A7CCB3E5BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="838200"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="609600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="그림 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D892900-FC32-46B2-94F3-E4D3FC17E872}"/>
+        <xdr:cNvPr id="40" name="그림 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C897D4-9F84-4DB8-AD6E-0BBBBFB2BBA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1249,139 +2529,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="1047750"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="609600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="그림 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC67E6BF-6C3F-4A6B-9909-D2B6E33A529D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="0"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="609600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="그림 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A11CADEB-711B-4DDD-B26B-44B91C531A3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="209550"/>
-          <a:ext cx="609600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="609600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="그림 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E6B7D7-93F2-4E71-A967-9579D46AF9F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="419100"/>
+          <a:off x="5486400" y="3352800"/>
           <a:ext cx="609600" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1691,174 +2839,564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44402216-553F-496C-8CA1-F71373F0C8B9}">
-  <dimension ref="B1:P8"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8" style="3" customWidth="1"/>
+    <col min="6" max="6" width="4" style="3" customWidth="1"/>
+    <col min="7" max="8" width="12" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4" style="2" customWidth="1"/>
+    <col min="11" max="12" width="12" style="3" customWidth="1"/>
+    <col min="13" max="14" width="9" style="2" customWidth="1"/>
+    <col min="15" max="16" width="9" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="72" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="48" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="72" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="48" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="72" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="48" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="72" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="48" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="72" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="48" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="72" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="48" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="67" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="72" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="48" customHeight="1" collapsed="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C660272-63F4-41D9-A70B-5A94A0A4161A}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="3" max="4" width="12.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="7.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8" customWidth="1"/>
-    <col min="11" max="12" width="12" style="1" customWidth="1"/>
-    <col min="13" max="14" width="8" customWidth="1"/>
-    <col min="15" max="16" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37"/>
-      <c r="C1" s="36" t="s">
+    <row r="1" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="30" t="s">
+      <c r="D1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="24" t="s">
+      <c r="H1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="24" t="s">
-        <v>22</v>
+      <c r="L1" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35"/>
-      <c r="C2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28" t="s">
+    <row r="2" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="74">
+        <v>775544</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="H2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="10"/>
       <c r="J2" s="23"/>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="22" t="s">
-        <v>20</v>
+      <c r="L2" s="25" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6" t="s">
+      <c r="D3" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="12" t="s">
+      <c r="H3" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>10</v>
+      <c r="L3" s="34" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17"/>
-      <c r="C4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>8</v>
+    <row r="4" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>6</v>
+    <row r="5" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
-      <c r="C6" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>18</v>
-      </c>
+    <row r="6" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>